--- a/spring/src/main/resources/excel_report_template.xlsx
+++ b/spring/src/main/resources/excel_report_template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\workspace\spring_angular\spring\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92E3714-0537-4EE9-8781-BDA9606FB627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4958E87D-B253-4D22-944D-2379732E341B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C15C2A54-22DE-4E0D-B555-EA6C516D7FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="15" r:id="rId1"/>
     <sheet name="目录" sheetId="14" r:id="rId2"/>
-    <sheet name="汇总模板" sheetId="1" r:id="rId3"/>
+    <sheet name="汇总模版" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1347,7 +1347,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>汇总模板!$C$20</c:f>
+              <c:f>汇总模版!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1368,7 +1368,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>汇总模板!$B$21:$B$30</c:f>
+              <c:f>汇总模版!$B$21:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1406,7 +1406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>汇总模板!$C$21:$C$30</c:f>
+              <c:f>汇总模版!$C$21:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1454,7 +1454,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>汇总模板!$E$20</c:f>
+              <c:f>汇总模版!$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1475,7 +1475,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>汇总模板!$B$21:$B$30</c:f>
+              <c:f>汇总模版!$B$21:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1513,7 +1513,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>汇总模板!$E$21:$E$30</c:f>
+              <c:f>汇总模版!$E$21:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1576,7 +1576,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>汇总模板!$D$20</c:f>
+              <c:f>汇总模版!$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1599,7 +1599,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>汇总模板!$B$21:$B$30</c:f>
+              <c:f>汇总模版!$B$21:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1637,7 +1637,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>汇总模板!$D$21:$D$30</c:f>
+              <c:f>汇总模版!$D$21:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1686,7 +1686,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>汇总模板!$F$20</c:f>
+              <c:f>汇总模版!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1709,7 +1709,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>汇总模板!$B$21:$B$30</c:f>
+              <c:f>汇总模版!$B$21:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1747,7 +1747,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>汇总模板!$F$21:$F$30</c:f>
+              <c:f>汇总模版!$F$21:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3112,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC34670-F533-42B3-BF95-077CD2628FB0}">
   <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/spring/src/main/resources/excel_report_template.xlsx
+++ b/spring/src/main/resources/excel_report_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\workspace\spring_angular\spring\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF748B4B-62D3-4AA2-B475-7E23B1292967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A28530-4F89-4368-897F-AEA3F4B4DE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C15C2A54-22DE-4E0D-B555-EA6C516D7FF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C15C2A54-22DE-4E0D-B555-EA6C516D7FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="15" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>申报单位</t>
   </si>
@@ -78,48 +78,6 @@
   </si>
   <si>
     <t>目录</t>
-  </si>
-  <si>
-    <t>01.目录</t>
-  </si>
-  <si>
-    <t>02.申报单位汇总</t>
-  </si>
-  <si>
-    <t>03.货主单位汇总</t>
-  </si>
-  <si>
-    <t>04.经营单位汇总</t>
-  </si>
-  <si>
-    <t>05.贸易国汇总</t>
-  </si>
-  <si>
-    <t>06.进出口关区汇总</t>
-  </si>
-  <si>
-    <t>07.贸易方式汇总</t>
-  </si>
-  <si>
-    <t>08.运输方式汇总</t>
-  </si>
-  <si>
-    <t>09.目的地（原产地）汇总</t>
-  </si>
-  <si>
-    <t>10.月度汇总</t>
-  </si>
-  <si>
-    <t>11.区域汇总</t>
-  </si>
-  <si>
-    <t>12.大洲汇总</t>
-  </si>
-  <si>
-    <t>13.产品名称汇总</t>
-  </si>
-  <si>
-    <t>14.明细表</t>
   </si>
   <si>
     <t>月份</t>
@@ -624,12 +582,12 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
@@ -644,22 +602,22 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
@@ -669,7 +627,7 @@
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5DDB83-6A00-4AC0-B244-3445EEC2A2C6}">
   <dimension ref="B7:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -694,94 +654,53 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+    </row>
     <row r="11" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="6"/>
     </row>
     <row r="13" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="6"/>
     </row>
     <row r="15" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="6"/>
     </row>
     <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B17" s="6"/>
     </row>
     <row r="19" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="B19" s="6"/>
     </row>
     <row r="21" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B21" s="6"/>
     </row>
     <row r="23" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B23" s="6"/>
     </row>
     <row r="25" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B25" s="6"/>
     </row>
     <row r="27" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="B27" s="6"/>
     </row>
     <row r="29" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="31" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B31" s="6"/>
     </row>
     <row r="33" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B33" s="6"/>
     </row>
     <row r="35" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B35" s="6"/>
     </row>
     <row r="37" spans="2:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="B37" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B11" location="'目录'!A1" tooltip="跳至【目录】" display="'目录'!A1" xr:uid="{5B40909D-2BD8-4B32-9550-EFC8FDA3288F}"/>
-    <hyperlink ref="B13" location="'申报单位汇总'!A1" tooltip="跳至【申报单位汇总】" display="'申报单位汇总'!A1" xr:uid="{16B80F62-581E-4287-8DC9-DF50EC82B0D9}"/>
-    <hyperlink ref="B15" location="'货主单位汇总'!A1" tooltip="跳至【货主单位汇总】" display="'货主单位汇总'!A1" xr:uid="{AC7FE040-4E1F-4FBC-B64C-8F8504E22129}"/>
-    <hyperlink ref="B17" location="'经营单位汇总'!A1" tooltip="跳至【经营单位汇总】" display="'经营单位汇总'!A1" xr:uid="{276E2DA2-F7EB-4E57-AE8E-28070F48B7BB}"/>
-    <hyperlink ref="B19" location="'贸易国汇总'!A1" tooltip="跳至【贸易国汇总】" display="'贸易国汇总'!A1" xr:uid="{92E1CDCE-8142-4848-8BC3-DAE0451C23FB}"/>
-    <hyperlink ref="B21" location="'进出口关区汇总'!A1" tooltip="跳至【进出口关区汇总】" display="'进出口关区汇总'!A1" xr:uid="{2E113A95-FDFE-48CB-8235-8E751D716368}"/>
-    <hyperlink ref="B23" location="'贸易方式汇总'!A1" tooltip="跳至【贸易方式汇总】" display="'贸易方式汇总'!A1" xr:uid="{D4F1FE42-4F0E-4FBF-B96D-78E1B84D1274}"/>
-    <hyperlink ref="B25" location="'运输方式汇总'!A1" tooltip="跳至【运输方式汇总】" display="'运输方式汇总'!A1" xr:uid="{1668ABC4-2903-42EF-B116-A8367177342B}"/>
-    <hyperlink ref="B27" location="'目的地（原产地）汇总'!A1" tooltip="跳至【目的地（原产地）汇总】" display="'目的地（原产地）汇总'!A1" xr:uid="{81E8CBB4-CD00-4848-B709-AE9E765B3B5B}"/>
-    <hyperlink ref="B29" location="'月度汇总'!A1" tooltip="跳至【月度汇总】" display="'月度汇总'!A1" xr:uid="{426A1556-38C8-42C7-92A2-E22A7DF6B67C}"/>
-    <hyperlink ref="B31" location="'区域汇总'!A1" tooltip="跳至【区域汇总】" display="'区域汇总'!A1" xr:uid="{6144577A-5493-419C-BB27-693FB9294EBF}"/>
-    <hyperlink ref="B33" location="'大洲汇总'!A1" tooltip="跳至【大洲汇总】" display="'大洲汇总'!A1" xr:uid="{BD0BBD45-6DDD-4DAC-BFD5-CD4463D67896}"/>
-    <hyperlink ref="B35" location="'产品名称汇总'!A1" tooltip="跳至【产品名称汇总】" display="'产品名称汇总'!A1" xr:uid="{63283C38-C8AE-4C33-962A-E28F5FDB03EC}"/>
-    <hyperlink ref="B37" location="'明细表'!A1" tooltip="跳至【明细表】" display="'明细表'!A1" xr:uid="{80446DC5-21A9-434D-B738-FB8CA5A62FED}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -790,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC34670-F533-42B3-BF95-077CD2628FB0}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
